--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\widyahx\OneDrive - Abbott\1 - Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112791ED-F077-41D9-AE14-BAEE49426BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B787A09D-4571-4507-85FE-B43F609580F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{29D356F2-98A0-4DE8-9FC7-B1B77B01FB62}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Finance 2024" sheetId="12" r:id="rId2"/>
     <sheet name="Improv" sheetId="11" r:id="rId3"/>
     <sheet name="Plan" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -674,6 +675,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,15 +700,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3153,10 +3154,10 @@
       <c r="M2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="59">
+      <c r="N2" s="62">
         <v>70000</v>
       </c>
-      <c r="O2" s="59"/>
+      <c r="O2" s="62"/>
       <c r="R2" s="34"/>
     </row>
     <row r="3" spans="6:18" x14ac:dyDescent="0.3">
@@ -3181,11 +3182,11 @@
       <c r="M3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="62">
         <f>90000/65804*N2</f>
         <v>95738.860859522218</v>
       </c>
-      <c r="O3" s="59"/>
+      <c r="O3" s="62"/>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="6:18" x14ac:dyDescent="0.3">
@@ -3215,11 +3216,11 @@
       <c r="M5" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="59">
+      <c r="N5" s="62">
         <f>85000/145913*N6</f>
         <v>106743.61145691197</v>
       </c>
-      <c r="O5" s="59"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
@@ -3245,11 +3246,11 @@
       <c r="M6" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="59">
+      <c r="N6" s="62">
         <f>316741/121000*N2</f>
         <v>183238.59504132232</v>
       </c>
-      <c r="O6" s="59"/>
+      <c r="O6" s="62"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
@@ -3275,11 +3276,11 @@
       <c r="M7" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="59">
+      <c r="N7" s="62">
         <f>N2/42736*114000</f>
         <v>186727.81729689255</v>
       </c>
-      <c r="O7" s="59"/>
+      <c r="O7" s="62"/>
     </row>
     <row r="8" spans="6:18" x14ac:dyDescent="0.3">
       <c r="F8" s="33" t="s">
@@ -3618,29 +3619,29 @@
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
-      <c r="N23" s="60" t="s">
+      <c r="N23" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60" t="s">
+      <c r="O23" s="63"/>
+      <c r="P23" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="Q23" s="60"/>
+      <c r="Q23" s="63"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="M24" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="N24" s="61">
+      <c r="N24" s="56">
         <f>-G25</f>
         <v>383.07692307692309</v>
       </c>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62">
+      <c r="O24" s="56"/>
+      <c r="P24" s="64">
         <f t="shared" ref="P24" si="9">N24*26</f>
         <v>9960</v>
       </c>
-      <c r="Q24" s="62"/>
+      <c r="Q24" s="64"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F25" s="33" t="s">
@@ -3665,16 +3666,16 @@
       <c r="M25" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="61">
+      <c r="N25" s="56">
         <f>-(G27+G30+G31+G32+G36+G38)</f>
         <v>403.62</v>
       </c>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61">
+      <c r="O25" s="56"/>
+      <c r="P25" s="56">
         <f>N25*26</f>
         <v>10494.12</v>
       </c>
-      <c r="Q25" s="61"/>
+      <c r="Q25" s="56"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F26" s="33" t="s">
@@ -3703,7 +3704,7 @@
         <f>-(G28+G29)</f>
         <v>71.569230769230771</v>
       </c>
-      <c r="O26" s="56">
+      <c r="O26" s="59">
         <f>SUM(N26:N28)</f>
         <v>255.06923076923078</v>
       </c>
@@ -3711,7 +3712,7 @@
         <f>N26*26</f>
         <v>1860.8</v>
       </c>
-      <c r="Q26" s="56">
+      <c r="Q26" s="59">
         <f>SUM(P26:P28)</f>
         <v>6631.8</v>
       </c>
@@ -3742,12 +3743,12 @@
       <c r="N27" s="38">
         <v>175</v>
       </c>
-      <c r="O27" s="57"/>
+      <c r="O27" s="60"/>
       <c r="P27" s="39">
         <f>N27*26</f>
         <v>4550</v>
       </c>
-      <c r="Q27" s="57"/>
+      <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F28" s="33" t="s">
@@ -3777,12 +3778,12 @@
         <f>-G35</f>
         <v>8.5</v>
       </c>
-      <c r="O28" s="58"/>
+      <c r="O28" s="61"/>
       <c r="P28" s="39">
         <f>N28*26</f>
         <v>221</v>
       </c>
-      <c r="Q28" s="58"/>
+      <c r="Q28" s="61"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F29" s="33" t="s">
@@ -3807,16 +3808,16 @@
       <c r="M29" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="N29" s="61">
+      <c r="N29" s="56">
         <f>G23-N24-O26-N25</f>
         <v>2084.4818132288465</v>
       </c>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61">
+      <c r="O29" s="56"/>
+      <c r="P29" s="56">
         <f>N29*26</f>
         <v>54196.527143950007</v>
       </c>
-      <c r="Q29" s="61"/>
+      <c r="Q29" s="56"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F30" s="33" t="s">
@@ -3864,16 +3865,16 @@
       <c r="M31" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="N31" s="61">
+      <c r="N31" s="56">
         <f>N24+O26+N25+N29</f>
         <v>3126.2479670750004</v>
       </c>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61">
+      <c r="O31" s="56"/>
+      <c r="P31" s="56">
         <f>P24+Q26+P25+P29</f>
         <v>81282.447143950005</v>
       </c>
-      <c r="Q31" s="61"/>
+      <c r="Q31" s="56"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="F32" s="33" t="s">
@@ -3965,9 +3966,9 @@
       <c r="L35" s="6"/>
       <c r="M35" s="43"/>
       <c r="N35" s="34"/>
-      <c r="O35" s="63"/>
+      <c r="O35" s="57"/>
       <c r="P35" s="44"/>
-      <c r="Q35" s="63"/>
+      <c r="Q35" s="57"/>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.3">
       <c r="F36" s="33" t="s">
@@ -3991,9 +3992,9 @@
       <c r="L36" s="6"/>
       <c r="M36" s="43"/>
       <c r="N36" s="34"/>
-      <c r="O36" s="63"/>
+      <c r="O36" s="57"/>
       <c r="P36" s="44"/>
-      <c r="Q36" s="64"/>
+      <c r="Q36" s="58"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
       <c r="F37" s="33" t="s">
@@ -4017,9 +4018,9 @@
       <c r="L37" s="6"/>
       <c r="M37" s="45"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="63"/>
+      <c r="O37" s="57"/>
       <c r="P37" s="44"/>
-      <c r="Q37" s="64"/>
+      <c r="Q37" s="58"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.3">
       <c r="F38" s="33" t="s">
@@ -4167,12 +4168,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="Q35:Q37"/>
     <mergeCell ref="O26:O28"/>
     <mergeCell ref="Q26:Q28"/>
     <mergeCell ref="N2:O2"/>
@@ -4186,6 +4181,12 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="Q35:Q37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4197,7 +4198,7 @@
   <dimension ref="B2:R44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4238,8 +4239,8 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="3">
-        <f>(1120.13+1104.23+3000+1500)+(805.2+80.07)+(1982.48+175-1000-500)+(700.79+19.23*2)</f>
-        <v>9006.36</v>
+        <f>(1120.13+1104.23+3000+1500)+(805.2+80.07)+(1982.48+175-1000-500)+(700.79+19.23*2)+2800</f>
+        <v>11806.36</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -4248,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>58</v>
@@ -4385,7 +4386,7 @@
       </c>
       <c r="M9" s="3">
         <f>D35</f>
-        <v>34506.36</v>
+        <v>10406.36</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -4433,15 +4434,15 @@
       </c>
       <c r="M10" s="3">
         <f>M9+N10+O10+P10+Q10+R10</f>
-        <v>36881.360000000001</v>
+        <v>10481.36</v>
       </c>
       <c r="N10" s="3">
         <f>IF(LEFT(L10,8)="Biweekly", _xlfn.FLOOR.MATH(M9/$C$4)*$C$5, 0)</f>
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="O10" s="20">
         <f>IF(LEFT(L10,8)="Biweekly", $C$3,0)</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P10" s="23">
         <f>IF(LEFT(L10,8)="Biweekly", -$F$3,-350)</f>
@@ -4484,15 +4485,15 @@
       </c>
       <c r="M11" s="3">
         <f t="shared" ref="M11:M43" si="1">M10+N11+O11+P11+Q11+R11</f>
-        <v>39456.36</v>
+        <v>10556.36</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" ref="N11:N43" si="2">IF(LEFT(L11,8)="Biweekly", _xlfn.FLOOR.MATH(M10/$C$4)*$C$5, 0)</f>
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="O11" s="20">
         <f t="shared" ref="O11:O23" si="3">IF(LEFT(L11,8)="Biweekly", $C$3,0)</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P11" s="23">
         <f t="shared" ref="P11:P23" si="4">IF(LEFT(L11,8)="Biweekly", -$F$3,0)</f>
@@ -4535,7 +4536,7 @@
       </c>
       <c r="M12" s="5">
         <f t="shared" si="1"/>
-        <v>36331.360000000001</v>
+        <v>7431.3600000000006</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="2"/>
@@ -4587,15 +4588,15 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="1"/>
-        <v>38906.36</v>
+        <v>7506.3600000000006</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="O13" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P13" s="23">
         <f t="shared" si="4"/>
@@ -4639,15 +4640,15 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="1"/>
-        <v>41481.360000000001</v>
+        <v>7581.3600000000006</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="O14" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P14" s="23">
         <f t="shared" si="4"/>
@@ -4669,7 +4670,7 @@
       </c>
       <c r="D15" s="5">
         <f>(0)+H2</f>
-        <v>9006.36</v>
+        <v>11806.36</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="5"/>
@@ -4693,15 +4694,15 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="1"/>
-        <v>44056.36</v>
+        <v>7656.3600000000006</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="2"/>
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="O15" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P15" s="23">
         <f t="shared" si="4"/>
@@ -4721,7 +4722,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>10581.36</v>
+        <v>11881.36</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="5"/>
@@ -4729,7 +4730,7 @@
       </c>
       <c r="F16" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="7"/>
@@ -4747,7 +4748,7 @@
       </c>
       <c r="M16" s="5">
         <f t="shared" si="1"/>
-        <v>44056.36</v>
+        <v>7656.3600000000006</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="2"/>
@@ -4775,7 +4776,7 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>12156.36</v>
+        <v>11956.36</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="5"/>
@@ -4783,7 +4784,7 @@
       </c>
       <c r="F17" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="7"/>
@@ -4801,15 +4802,15 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="1"/>
-        <v>46831.360000000001</v>
+        <v>7731.3600000000006</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P17" s="23">
         <f t="shared" si="4"/>
@@ -4829,7 +4830,7 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>12156.36</v>
+        <v>11956.36</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="5"/>
@@ -4855,15 +4856,15 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" si="1"/>
-        <v>49606.36</v>
+        <v>7806.3600000000006</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="2"/>
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="O18" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P18" s="23">
         <f t="shared" si="4"/>
@@ -4883,15 +4884,15 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>13931.36</v>
+        <v>12031.36</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F19" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="7"/>
@@ -4909,7 +4910,7 @@
       </c>
       <c r="M19" s="5">
         <f t="shared" si="1"/>
-        <v>49606.36</v>
+        <v>7806.3600000000006</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="2"/>
@@ -4937,7 +4938,7 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>15706.36</v>
+        <v>12306.36</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="5"/>
@@ -4945,7 +4946,7 @@
       </c>
       <c r="F20" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G20" s="23">
         <f t="shared" si="7"/>
@@ -4963,15 +4964,15 @@
       </c>
       <c r="M20" s="3">
         <f t="shared" si="1"/>
-        <v>52581.36</v>
+        <v>7881.3600000000006</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="O20" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P20" s="23">
         <f t="shared" si="4"/>
@@ -4991,7 +4992,7 @@
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>17481.36</v>
+        <v>12581.36</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="5"/>
@@ -4999,7 +5000,7 @@
       </c>
       <c r="F21" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G21" s="23">
         <f t="shared" si="7"/>
@@ -5017,15 +5018,15 @@
       </c>
       <c r="M21" s="3">
         <f t="shared" si="1"/>
-        <v>55556.36</v>
+        <v>7956.3600000000006</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="2"/>
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="O21" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P21" s="23">
         <f t="shared" si="4"/>
@@ -5045,7 +5046,7 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>19256.36</v>
+        <v>12856.36</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="5"/>
@@ -5053,7 +5054,7 @@
       </c>
       <c r="F22" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G22" s="23">
         <f t="shared" si="7"/>
@@ -5071,15 +5072,15 @@
       </c>
       <c r="M22" s="3">
         <f t="shared" si="1"/>
-        <v>58731.360000000001</v>
+        <v>8031.3600000000006</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="O22" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P22" s="23">
         <f t="shared" si="4"/>
@@ -5101,7 +5102,7 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" si="0"/>
-        <v>16131.36</v>
+        <v>9731.36</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="5"/>
@@ -5127,15 +5128,15 @@
       </c>
       <c r="M23" s="3">
         <f t="shared" si="1"/>
-        <v>61906.36</v>
+        <v>8106.3600000000006</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="O23" s="20">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P23" s="23">
         <f t="shared" si="4"/>
@@ -5155,15 +5156,15 @@
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>17906.36</v>
+        <v>9806.36</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F24" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G24" s="23">
         <f t="shared" si="7"/>
@@ -5183,7 +5184,7 @@
       </c>
       <c r="M24" s="5">
         <f t="shared" si="1"/>
-        <v>61906.36</v>
+        <v>8106.3600000000006</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="2"/>
@@ -5211,15 +5212,15 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>19681.36</v>
+        <v>9881.36</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F25" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G25" s="23">
         <f t="shared" si="7"/>
@@ -5237,15 +5238,15 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" si="1"/>
-        <v>65281.36</v>
+        <v>8181.3600000000006</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="O25" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P25" s="23">
         <f t="shared" si="9"/>
@@ -5265,15 +5266,15 @@
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>21656.36</v>
+        <v>9956.36</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F26" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G26" s="23">
         <f t="shared" si="7"/>
@@ -5291,15 +5292,15 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" si="1"/>
-        <v>68656.36</v>
+        <v>8256.36</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="O26" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P26" s="23">
         <f t="shared" si="9"/>
@@ -5319,7 +5320,7 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" si="0"/>
-        <v>21656.36</v>
+        <v>9956.36</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="5"/>
@@ -5345,7 +5346,7 @@
       </c>
       <c r="M27" s="5">
         <f t="shared" si="1"/>
-        <v>68656.36</v>
+        <v>8256.36</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="2"/>
@@ -5373,15 +5374,15 @@
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>23631.360000000001</v>
+        <v>10031.36</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F28" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G28" s="23">
         <f t="shared" si="7"/>
@@ -5399,15 +5400,15 @@
       </c>
       <c r="M28" s="3">
         <f t="shared" si="1"/>
-        <v>72231.360000000001</v>
+        <v>8331.36</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="2"/>
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="O28" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="9"/>
@@ -5427,15 +5428,15 @@
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>25606.36</v>
+        <v>10106.36</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="5"/>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F29" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G29" s="23">
         <f t="shared" si="7"/>
@@ -5453,15 +5454,15 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="1"/>
-        <v>76006.36</v>
+        <v>8406.36</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="O29" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P29" s="23">
         <f t="shared" si="9"/>
@@ -5481,7 +5482,7 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" si="0"/>
-        <v>25606.36</v>
+        <v>10106.36</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="5"/>
@@ -5507,15 +5508,15 @@
       </c>
       <c r="M30" s="3">
         <f t="shared" si="1"/>
-        <v>79781.36</v>
+        <v>8481.36</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>200</v>
       </c>
       <c r="O30" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="9"/>
@@ -5535,15 +5536,15 @@
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>27781.360000000001</v>
+        <v>10181.36</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F31" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G31" s="23">
         <f t="shared" si="7"/>
@@ -5561,15 +5562,15 @@
       </c>
       <c r="M31" s="3">
         <f t="shared" si="1"/>
-        <v>83756.36</v>
+        <v>8556.36</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>200</v>
       </c>
       <c r="O31" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P31" s="23">
         <f t="shared" si="9"/>
@@ -5589,15 +5590,15 @@
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>29956.36</v>
+        <v>10256.36</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F32" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G32" s="23">
         <f t="shared" si="7"/>
@@ -5617,7 +5618,7 @@
       </c>
       <c r="M32" s="5">
         <f t="shared" si="1"/>
-        <v>79631.360000000001</v>
+        <v>4431.3600000000006</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="2"/>
@@ -5645,15 +5646,15 @@
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>32131.360000000001</v>
+        <v>10331.36</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="5"/>
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="F33" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G33" s="23">
         <f t="shared" si="7"/>
@@ -5671,15 +5672,15 @@
       </c>
       <c r="M33" s="3">
         <f t="shared" si="1"/>
-        <v>83606.36</v>
+        <v>4306.3600000000006</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="O33" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P33" s="23">
         <f t="shared" si="9"/>
@@ -5699,15 +5700,15 @@
       </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>34506.36</v>
+        <v>10406.36</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F34" s="20">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G34" s="23">
         <f t="shared" si="7"/>
@@ -5725,15 +5726,15 @@
       </c>
       <c r="M34" s="3">
         <f t="shared" si="1"/>
-        <v>87581.36</v>
+        <v>4181.3600000000006</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="O34" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P34" s="23">
         <f t="shared" si="9"/>
@@ -5755,15 +5756,15 @@
       </c>
       <c r="D35" s="26">
         <f>D34</f>
-        <v>34506.36</v>
+        <v>10406.36</v>
       </c>
       <c r="E35" s="27">
         <f t="shared" ref="E35:F35" si="10">SUM(E9:E34)</f>
-        <v>16000</v>
+        <v>11600</v>
       </c>
       <c r="F35" s="27">
         <f t="shared" si="10"/>
-        <v>28021.1</v>
+        <v>5521.1</v>
       </c>
       <c r="G35" s="27">
         <f>SUM(G9:G34)</f>
@@ -5782,15 +5783,15 @@
       </c>
       <c r="M35" s="3">
         <f t="shared" si="1"/>
-        <v>91756.36</v>
+        <v>4056.3600000000006</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="2"/>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="O35" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="9"/>
@@ -5810,7 +5811,7 @@
       </c>
       <c r="M36" s="5">
         <f t="shared" si="1"/>
-        <v>91756.36</v>
+        <v>4056.3600000000006</v>
       </c>
       <c r="N36" s="5">
         <f t="shared" si="2"/>
@@ -5841,15 +5842,15 @@
       </c>
       <c r="M37" s="3">
         <f t="shared" si="1"/>
-        <v>96131.36</v>
+        <v>3931.3600000000006</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O37" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" si="9"/>
@@ -5870,15 +5871,15 @@
       </c>
       <c r="M38" s="3">
         <f t="shared" si="1"/>
-        <v>100706.36</v>
+        <v>3806.3600000000006</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" si="2"/>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="O38" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P38" s="23">
         <f t="shared" si="9"/>
@@ -5898,7 +5899,7 @@
       </c>
       <c r="M39" s="5">
         <f t="shared" si="1"/>
-        <v>100706.36</v>
+        <v>3806.3600000000006</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="2"/>
@@ -5926,15 +5927,15 @@
       </c>
       <c r="M40" s="3">
         <f t="shared" si="1"/>
-        <v>105281.36</v>
+        <v>3681.3600000000006</v>
       </c>
       <c r="N40" s="3">
         <f t="shared" si="2"/>
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="O40" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P40" s="23">
         <f t="shared" si="9"/>
@@ -5954,15 +5955,15 @@
       </c>
       <c r="M41" s="3">
         <f t="shared" si="1"/>
-        <v>110056.36</v>
+        <v>3556.3600000000006</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" si="2"/>
-        <v>3400</v>
+        <v>0</v>
       </c>
       <c r="O41" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" si="9"/>
@@ -5982,15 +5983,15 @@
       </c>
       <c r="M42" s="3">
         <f t="shared" si="1"/>
-        <v>115031.36</v>
+        <v>3431.3600000000006</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="2"/>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="O42" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P42" s="23">
         <f t="shared" si="9"/>
@@ -6010,15 +6011,15 @@
       </c>
       <c r="M43" s="3">
         <f t="shared" si="1"/>
-        <v>120206.36</v>
+        <v>3306.3600000000006</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="2"/>
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="O43" s="20">
         <f t="shared" si="8"/>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" si="9"/>
@@ -6040,15 +6041,15 @@
       </c>
       <c r="M44" s="26">
         <f>M43</f>
-        <v>120206.36</v>
+        <v>3306.3600000000006</v>
       </c>
       <c r="N44" s="27">
         <f>SUM(N9:N43)</f>
-        <v>57200</v>
+        <v>3400</v>
       </c>
       <c r="O44" s="27">
         <f t="shared" ref="O44:Q44" si="11">SUM(O9:O43)</f>
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="P44" s="27">
         <f t="shared" si="11"/>
@@ -6572,4 +6573,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B484E714-0BD4-4CEA-A439-DBE27DD25F1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>